--- a/docs/odh/obf-ActionRequest.xlsx
+++ b/docs/odh/obf-ActionRequest.xlsx
@@ -330,7 +330,7 @@
     <t>identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Identifier-extension}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/odh/StructureDefinition/obf-datatype-Identifier-extension}
 </t>
   </si>
   <si>
@@ -402,7 +402,7 @@
     <t>code</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Code-extension}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/odh/StructureDefinition/obf-datatype-Code-extension}
 </t>
   </si>
   <si>
@@ -412,7 +412,7 @@
     <t>category</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Category-extension}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/odh/StructureDefinition/obf-datatype-Category-extension}
 </t>
   </si>
   <si>
@@ -472,7 +472,7 @@
     <t>prioritycode</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-PriorityCode-extension}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/odh/StructureDefinition/obf-datatype-PriorityCode-extension}
 </t>
   </si>
   <si>
